--- a/simulations/raw_inclusion_exclusion/Chou_2004 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Chou_2004 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>688</v>
       </c>
       <c r="C2">
-        <v>489</v>
+        <v>753</v>
       </c>
       <c r="D2">
-        <v>588.5</v>
+        <v>720.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>736</v>
       </c>
       <c r="C3">
-        <v>458</v>
+        <v>742</v>
       </c>
       <c r="D3">
-        <v>597</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>913</v>
       </c>
       <c r="C4">
-        <v>928</v>
+        <v>1061</v>
       </c>
       <c r="D4">
-        <v>920.5</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1228</v>
+        <v>156</v>
       </c>
       <c r="D5">
-        <v>626</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>221</v>
       </c>
       <c r="C6">
-        <v>1185</v>
+        <v>482</v>
       </c>
       <c r="D6">
-        <v>703</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>987</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>539</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -495,10 +495,10 @@
         <v>649</v>
       </c>
       <c r="C8">
-        <v>1154</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>1154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -509,10 +509,10 @@
         <v>985</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>536</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>1230</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>629.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,7 +537,7 @@
         <v>572.875</v>
       </c>
       <c r="C11">
-        <v>761.1111111111111</v>
+        <v>392.1111111111111</v>
       </c>
     </row>
   </sheetData>
